--- a/mydata.xlsx
+++ b/mydata.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>N_A</t>
   </si>
@@ -58,7 +58,7 @@
     <t>interfactial_tension_nsamples</t>
   </si>
   <si>
-    <t>graft</t>
+    <t>mikto</t>
   </si>
 </sst>
 </file>
@@ -390,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:O3"/>
+  <dimension ref="B1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -445,13 +445,13 @@
         <v>64</v>
       </c>
       <c r="C2">
-        <v>102</v>
+        <v>1024</v>
       </c>
       <c r="D2">
         <v>64</v>
       </c>
       <c r="E2">
-        <v>102</v>
+        <v>1024</v>
       </c>
       <c r="F2">
         <v>16</v>
@@ -460,7 +460,7 @@
         <v>16</v>
       </c>
       <c r="H2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -475,57 +475,13 @@
         <v>14</v>
       </c>
       <c r="M2">
-        <v>0.3592661884583133</v>
+        <v>0.6764012623607148</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.0001112229601232021</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15">
-      <c r="B3">
-        <v>64</v>
-      </c>
-      <c r="C3">
-        <v>102</v>
-      </c>
-      <c r="D3">
-        <v>64</v>
-      </c>
-      <c r="E3">
-        <v>102</v>
-      </c>
-      <c r="F3">
-        <v>16</v>
-      </c>
-      <c r="G3">
-        <v>16</v>
-      </c>
-      <c r="H3">
-        <v>24</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>0.85</v>
-      </c>
-      <c r="K3">
-        <v>0.544</v>
-      </c>
-      <c r="L3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3">
-        <v>0.8338444327866235</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
+        <v>9671</v>
       </c>
     </row>
   </sheetData>
